--- a/data/trans_bre/IP08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP08-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-35,54%</t>
+          <t>-8,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,18%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,65%</t>
+          <t>-50,61%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 0,54</t>
+          <t>-5,78; 4,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 1,02</t>
+          <t>-5,04; 4,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,18</t>
+          <t>-3,1; 4,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 3,55</t>
+          <t>-10,89; -1,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,99; 6,66</t>
+          <t>-42,09; 51,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,46; 10,52</t>
+          <t>-36,04; 55,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,54; 82,77</t>
+          <t>-43,29; 110,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,96; 40,48</t>
+          <t>-73,98; -7,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,34%</t>
+          <t>-35,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>-25,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-50,61%</t>
+          <t>-7,65%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 4,63</t>
+          <t>-6,65; 0,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,78</t>
+          <t>-7,1; 1,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,35</t>
+          <t>-3,61; 3,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -1,09</t>
+          <t>-6,67; 3,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 51,24</t>
+          <t>-61,99; 6,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 55,12</t>
+          <t>-52,46; 10,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 110,42</t>
+          <t>-51,54; 82,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,98; -7,84</t>
+          <t>-44,96; 40,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP08-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-39,52%</t>
+          <t>-26,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,65%</t>
+          <t>-15,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,25%</t>
+          <t>-27,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-28,25%</t>
+          <t>-20,07%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; -1,41</t>
+          <t>-10,37; 2,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 3,9</t>
+          <t>-9,99; 3,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 3,43</t>
+          <t>-8,65; 2,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 2,6</t>
+          <t>-14,6; 5,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,97; -12,18</t>
+          <t>-62,35; 35,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 28,17</t>
+          <t>-47,4; 29,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 43,99</t>
+          <t>-64,98; 34,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,17; 21,94</t>
+          <t>-62,87; 48,97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,34%</t>
+          <t>-29,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-50,61%</t>
+          <t>-50,58%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 4,63</t>
+          <t>-8,85; 0,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,78</t>
+          <t>-7,32; 2,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,35</t>
+          <t>-3,9; 4,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -1,09</t>
+          <t>-11,37; -1,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 51,24</t>
+          <t>-53,53; 4,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 55,12</t>
+          <t>-43,07; 23,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 110,42</t>
+          <t>-38,32; 70,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,98; -7,84</t>
+          <t>-75,81; -12,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-35,54%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-25,18%</t>
+          <t>36,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,65%</t>
+          <t>-11,75%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 0,54</t>
+          <t>-5,65; 6,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 1,02</t>
+          <t>-2,02; 9,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,18</t>
+          <t>-1,54; 5,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 3,55</t>
+          <t>-7,11; 3,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,99; 6,66</t>
+          <t>-42,95; 82,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,46; 10,52</t>
+          <t>-20,42; 148,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,54; 82,77</t>
+          <t>-38,37; 300,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,96; 40,48</t>
+          <t>-51,04; 53,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-28,57%</t>
+          <t>-52,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,21%</t>
+          <t>-41,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>-9,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-19,05%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -0,73</t>
+          <t>-8,34; -0,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,8</t>
+          <t>-10,94; -0,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,95</t>
+          <t>-4,84; 3,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -0,18</t>
+          <t>-9,08; 2,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,33; -6,67</t>
+          <t>-75,91; -7,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 7,29</t>
+          <t>-65,42; -0,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 33,25</t>
+          <t>-56,62; 90,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,98; -0,12</t>
+          <t>-52,83; 31,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-3,3</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,05</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-28,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-14,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,17%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-24,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; -0,43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 0,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 2,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 0,17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-46,37; -4,11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-32,44; 6,07</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-28,14; 38,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-43,78; 1,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP08-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 2,99</t>
+          <t>-10,09; 3,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 3,83</t>
+          <t>-10,26; 4,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 2,23</t>
+          <t>-8,7; 2,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 5,86</t>
+          <t>-13,56; 6,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 35,56</t>
+          <t>-61,86; 46,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,4; 29,73</t>
+          <t>-47,09; 35,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-64,98; 34,4</t>
+          <t>-63,11; 44,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,87; 48,97</t>
+          <t>-58,67; 60,25</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 0,38</t>
+          <t>-8,6; 0,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 2,79</t>
+          <t>-7,79; 2,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 4,57</t>
+          <t>-3,42; 4,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -1,25</t>
+          <t>-10,68; -1,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,53; 4,55</t>
+          <t>-52,96; 5,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 23,46</t>
+          <t>-46,18; 24,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 70,08</t>
+          <t>-34,04; 78,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,81; -12,28</t>
+          <t>-73,59; -14,3</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 6,28</t>
+          <t>-5,66; 6,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 9,38</t>
+          <t>-2,57; 9,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,1</t>
+          <t>-1,6; 4,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,93</t>
+          <t>-6,83; 4,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,95; 82,9</t>
+          <t>-44,87; 81,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 148,03</t>
+          <t>-25,19; 133,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 300,52</t>
+          <t>-35,87; 296,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 53,14</t>
+          <t>-50,68; 52,2</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,34; -0,72</t>
+          <t>-8,37; -0,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -0,2</t>
+          <t>-10,86; 0,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,72</t>
+          <t>-5,01; 3,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 2,91</t>
+          <t>-9,91; 3,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,91; -7,76</t>
+          <t>-76,11; -6,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,42; -0,18</t>
+          <t>-67,7; 4,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,62; 90,56</t>
+          <t>-57,67; 82,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,83; 31,8</t>
+          <t>-54,7; 39,71</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -0,43</t>
+          <t>-5,86; -0,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,72</t>
+          <t>-4,95; 1,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,17</t>
+          <t>-2,54; 2,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,17</t>
+          <t>-6,35; 0,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,37; -4,11</t>
+          <t>-45,35; -8,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 6,07</t>
+          <t>-33,06; 8,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 38,6</t>
+          <t>-30,65; 35,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 1,45</t>
+          <t>-43,14; 0,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP08-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han sufrido alguna dolencia o enfermedad continuada</t>
+          <t>Menores que sufrieron alguna dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-20,07%</t>
+          <t>-23,74%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 3,62</t>
+          <t>-9,7; 2,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 4,31</t>
+          <t>-9,29; 4,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 2,92</t>
+          <t>-8,51; 2,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 6,98</t>
+          <t>-15,52; 6,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,86; 46,18</t>
+          <t>-62,58; 33,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 35,65</t>
+          <t>-45,4; 39,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,11; 44,9</t>
+          <t>-66,3; 37,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,67; 60,25</t>
+          <t>-63,13; 48,55</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-50,58%</t>
+          <t>-53,01%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 0,52</t>
+          <t>-8,48; 0,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 2,81</t>
+          <t>-7,17; 2,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,82</t>
+          <t>-3,77; 4,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -1,39</t>
+          <t>-11,28; -1,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,96; 5,33</t>
+          <t>-52,82; 6,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 24,61</t>
+          <t>-42,72; 19,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 78,74</t>
+          <t>-37,53; 72,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,59; -14,3</t>
+          <t>-74,89; -13,95</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-12,29%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 6,2</t>
+          <t>-6,19; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 9,44</t>
+          <t>-3,15; 8,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 4,83</t>
+          <t>-1,51; 4,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 4,39</t>
+          <t>-7,51; 4,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 81,92</t>
+          <t>-47,23; 77,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 133,39</t>
+          <t>-27,11; 129,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 296,85</t>
+          <t>-43,83; 306,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 52,2</t>
+          <t>-54,17; 57,6</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,05%</t>
+          <t>-21,95%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,37; -0,94</t>
+          <t>-8,24; -0,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 0,28</t>
+          <t>-11,36; -0,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 3,64</t>
+          <t>-5,07; 3,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 3,17</t>
+          <t>-13,49; 3,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,11; -6,73</t>
+          <t>-76,44; 1,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,7; 4,45</t>
+          <t>-67,29; -1,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-57,67; 82,94</t>
+          <t>-56,31; 82,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,7; 39,71</t>
+          <t>-63,37; 42,59</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-26,65%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; -0,87</t>
+          <t>-5,95; -0,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 1,07</t>
+          <t>-5,1; 0,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,1</t>
+          <t>-2,54; 1,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 0,04</t>
+          <t>-8,0; -0,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,35; -8,06</t>
+          <t>-45,33; -6,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 8,51</t>
+          <t>-32,06; 7,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 35,15</t>
+          <t>-31,63; 33,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 0,74</t>
+          <t>-49,54; 2,13</t>
         </is>
       </c>
     </row>
